--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -215,6 +215,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -230,6 +245,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -248,9 +301,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,21 +324,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,67 +354,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,6 +374,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -386,25 +452,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,144 +555,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,6 +565,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -609,6 +624,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -639,32 +665,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -673,145 +673,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1176,7 +1176,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -4,29 +4,35 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="11900"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+  <si>
+    <t>case_id</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>case_name</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
   <si>
     <t>url</t>
   </si>
   <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>case_name</t>
-  </si>
-  <si>
     <t>json</t>
   </si>
   <si>
@@ -36,13 +42,19 @@
     <t>expected</t>
   </si>
   <si>
-    <t>/member/login</t>
+    <t>result</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>登录成功</t>
   </si>
   <si>
     <t>post</t>
   </si>
   <si>
-    <t>登录成功</t>
+    <t>/member/register</t>
   </si>
   <si>
     <t>{"mobile_phone": "18111111111", "pwd": "12345678"}</t>
@@ -189,10 +201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -216,17 +228,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,7 +265,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,44 +282,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,7 +297,67 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,50 +368,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -374,43 +386,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,139 +548,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,6 +577,33 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -585,9 +624,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,261 +677,220 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1171,93 +1186,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="54.875" customWidth="1"/>
-    <col min="2" max="2" width="7.375" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="56" customWidth="1"/>
-    <col min="5" max="5" width="44.875" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1538461538462" style="1" customWidth="1"/>
+    <col min="6" max="6" width="56" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" ht="14.25" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>0</v>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1265,16 +1303,16 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1282,9 +1320,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>case_id</t>
   </si>
@@ -63,137 +63,16 @@
     <t>{"X-Lemonban-Media-Type": "lemonban.v2"}</t>
   </si>
   <si>
+    <t>测试失败</t>
+  </si>
+  <si>
     <t>用户名不正确</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"mobile_phone"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"1811"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"pwd"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"123"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"X-Lemonban-Media-Type"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"lemonban.v2"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
+    <t>{"mobile_phone": "1811", "pwd": "123"}</t>
+  </si>
+  <si>
+    <t>测试通过</t>
   </si>
 </sst>
 </file>
@@ -201,12 +80,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +113,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -242,17 +129,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -265,23 +144,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,12 +160,50 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,52 +213,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,10 +235,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FFCC7832"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -386,187 +259,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,6 +476,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,21 +537,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -682,127 +555,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
@@ -811,16 +684,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
@@ -1191,19 +1064,19 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.1538461538462" style="1" customWidth="1"/>
     <col min="6" max="6" width="56" style="1" customWidth="1"/>
     <col min="7" max="7" width="44.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1235,7 +1108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1260,8 +1133,11 @@
       <c r="H2" s="1">
         <v>1</v>
       </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1269,7 +1145,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -1278,13 +1154,16 @@
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1300,7 +1179,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="37">
   <si>
     <t>case_id</t>
   </si>
@@ -103,6 +103,9 @@
     <t>{"member_id": "13712341234", "pwd": "12345678"}</t>
   </si>
   <si>
+    <t>备注unittest.run()</t>
+  </si>
+  <si>
     <t>充值</t>
   </si>
   <si>
@@ -122,6 +125,10 @@
   </si>
   <si>
     <t>{"member_id": "#member_id#", "account": "100"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'code': 2, 'msg': '余额必须为数值型', 'data': None, 'copyright': 'Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved'}
+</t>
   </si>
 </sst>
 </file>
@@ -129,10 +136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -156,7 +163,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,8 +199,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,6 +209,75 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,93 +291,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,13 +315,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,169 +465,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,48 +506,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -559,12 +524,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -585,17 +572,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,171 +611,180 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -780,54 +796,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1123,7 +1139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -1131,154 +1147,154 @@
       <selection activeCell="I5" sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1538461538462" style="1" customWidth="1"/>
-    <col min="6" max="6" width="56" style="1" customWidth="1"/>
-    <col min="7" max="7" width="44.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.15" style="6" customWidth="1"/>
+    <col min="6" max="6" width="56" style="6" customWidth="1"/>
+    <col min="7" max="7" width="44.875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A2" s="1">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="6">
         <v>2</v>
       </c>
       <c r="I2"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="6">
         <v>2</v>
       </c>
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="4">
+    <row r="4" ht="14.25" spans="1:9">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="9">
         <v>1</v>
       </c>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="4">
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:9">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="4">
-        <v>2</v>
-      </c>
-      <c r="I5" s="8"/>
+      <c r="H5" s="9">
+        <v>2</v>
+      </c>
+      <c r="I5" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1288,212 +1304,212 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="8.15384615384615" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.46153846153846" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1538461538462" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.30769230769231" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1538461538462" style="1" customWidth="1"/>
-    <col min="6" max="6" width="73.0769230769231" style="1" customWidth="1"/>
-    <col min="7" max="7" width="48.7692307692308" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.30769230769231" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.61538461538461" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.15" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.45833333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.15" style="6" customWidth="1"/>
+    <col min="4" max="4" width="8.30833333333333" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.15" style="6" customWidth="1"/>
+    <col min="6" max="6" width="73.075" style="6" customWidth="1"/>
+    <col min="7" max="7" width="48.7666666666667" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.30833333333333" style="6" customWidth="1"/>
+    <col min="9" max="9" width="6.61666666666667" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="6" customFormat="1" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A2" s="1">
+    <row r="2" s="6" customFormat="1" ht="14.25" customHeight="1" spans="1:8">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="H2" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" s="6" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:9">
-      <c r="A4" s="4">
+      <c r="H3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" s="6" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="9">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="9">
         <v>1</v>
       </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:9">
-      <c r="A5" s="4">
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" s="6" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="9">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="4">
-        <v>2</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:8">
-      <c r="A6" s="1">
+      <c r="H5" s="9">
+        <v>2</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" s="6" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:8">
-      <c r="A7" s="1">
+      <c r="H6" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" s="6" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="9">
         <v>2</v>
       </c>
     </row>
@@ -1505,29 +1521,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="8.15384615384615" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.46153846153846" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1538461538462" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.30769230769231" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1538461538462" style="1" customWidth="1"/>
-    <col min="6" max="6" width="73.0769230769231" style="1" customWidth="1"/>
-    <col min="7" max="7" width="48.7692307692308" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.30769230769231" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.61538461538461" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.15" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.45833333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.30833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.7666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.30833333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.61666666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:9">
+    <row r="1" ht="27" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1555,22 +1572,25 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1" spans="1:8">
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>30</v>
+      <c r="E2" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>21</v>
@@ -1582,21 +1602,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="14.25" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>30</v>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>22</v>
@@ -1608,110 +1628,113 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="4">
+    <row r="4" ht="14.25" spans="1:9">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>30</v>
+      <c r="E4" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="4">
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:9">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>30</v>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="4">
-        <v>2</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" ht="27" spans="1:8">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>30</v>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="148.5" spans="1:10">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>30</v>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="4">
-        <v>2</v>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1722,7 +1745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1730,7 +1753,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="17145" windowHeight="11790" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="3" r:id="rId2"/>
     <sheet name="recharge" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="invest" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="60">
   <si>
     <t>case_id</t>
   </si>
@@ -115,20 +116,88 @@
     <t>/member/recharge</t>
   </si>
   <si>
+    <t>{"member_id": "#member_id#", "amount": "-1"}</t>
+  </si>
+  <si>
     <t>字母</t>
   </si>
   <si>
+    <t>{"member_id": "#member_id#", "amount": "abc"}</t>
+  </si>
+  <si>
     <t>三位小数</t>
   </si>
   <si>
+    <t>{"member_id": "#member_id#", "amount": "11.111"}</t>
+  </si>
+  <si>
     <t>充值超过50w</t>
   </si>
   <si>
-    <t>{"member_id": "#member_id#", "account": "100"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'code': 2, 'msg': '余额必须为数值型', 'data': None, 'copyright': 'Copyright 柠檬班 © 2017-2020 湖南省零檬信息技术有限公司 All Rights Reserved'}
-</t>
+    <t>{"member_id": "#member_id#", "amount": "500001"}</t>
+  </si>
+  <si>
+    <t>{"member_id": "#wrong_member_id#", "amount": "100"}</t>
+  </si>
+  <si>
+    <t>{"member_id": "#member_id#", "amount": "100"}</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>添加投资</t>
+  </si>
+  <si>
+    <t>投资成功</t>
+  </si>
+  <si>
+    <t>/loan/add</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#, "title":"我来测试","amount":"100","loan__rate": 18}</t>
+  </si>
+  <si>
+    <t>审核投资</t>
+  </si>
+  <si>
+    <t>/loan/audit</t>
+  </si>
+  <si>
+    <t>{"approved_or_not": true, "loan_id": #loan_id#}</t>
+  </si>
+  <si>
+    <t>投资</t>
+  </si>
+  <si>
+    <t>投资金额为空</t>
+  </si>
+  <si>
+    <t>/member/invest</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#, "loan_id": #loan_id#}</t>
+  </si>
+  <si>
+    <t>投资金额为负数</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#, "loan_id": #loan_id#,"amount":-2}</t>
+  </si>
+  <si>
+    <t>投资金额不是100的倍数</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#, "loan_id": #loan_id#,"amount":103}</t>
+  </si>
+  <si>
+    <t>投资金额超过余额</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#, "loan_id": #loan_id#,"amount":*above_balance*}</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#, "loan_id": #loan_id#,"amount":100}</t>
   </si>
 </sst>
 </file>
@@ -136,10 +205,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -163,28 +232,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -193,15 +240,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,9 +276,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,18 +313,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,15 +328,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,29 +374,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -315,25 +384,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,162 +564,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -510,16 +579,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,39 +628,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,11 +649,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,6 +664,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -614,10 +698,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="5">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -626,137 +710,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -770,6 +854,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1149,152 +1236,152 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="2" width="9" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.15" style="6" customWidth="1"/>
-    <col min="6" max="6" width="56" style="6" customWidth="1"/>
-    <col min="7" max="7" width="44.875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="6" customWidth="1"/>
+    <col min="1" max="2" width="9" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="19.15" style="7" customWidth="1"/>
+    <col min="6" max="6" width="56" style="7" customWidth="1"/>
+    <col min="7" max="7" width="44.875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="G2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="7">
         <v>2</v>
       </c>
       <c r="I2"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="7">
         <v>2</v>
       </c>
       <c r="I3"/>
     </row>
     <row r="4" ht="14.25" spans="1:9">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="G4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="10">
         <v>1</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" ht="14.25" spans="1:9">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="9">
-        <v>2</v>
-      </c>
-      <c r="I5" s="11"/>
+      <c r="G5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="10">
+        <v>2</v>
+      </c>
+      <c r="I5" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1314,202 +1401,202 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="8.15" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.45833333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.15" style="6" customWidth="1"/>
-    <col min="4" max="4" width="8.30833333333333" style="6" customWidth="1"/>
-    <col min="5" max="5" width="19.15" style="6" customWidth="1"/>
-    <col min="6" max="6" width="73.075" style="6" customWidth="1"/>
-    <col min="7" max="7" width="48.7666666666667" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.30833333333333" style="6" customWidth="1"/>
-    <col min="9" max="9" width="6.61666666666667" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="8.15" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.45833333333333" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.15" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.30833333333333" style="7" customWidth="1"/>
+    <col min="5" max="5" width="19.15" style="7" customWidth="1"/>
+    <col min="6" max="6" width="73.075" style="7" customWidth="1"/>
+    <col min="7" max="7" width="48.7666666666667" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.30833333333333" style="7" customWidth="1"/>
+    <col min="9" max="9" width="6.61666666666667" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="7" customFormat="1" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A2" s="6">
+    <row r="2" s="7" customFormat="1" ht="14.25" customHeight="1" spans="1:8">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" s="6" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="G2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" s="7" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="6">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" s="6" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A4" s="9">
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" s="7" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="10">
         <v>3</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="G4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="10">
         <v>1</v>
       </c>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" s="6" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A5" s="9">
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" s="7" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="10">
         <v>4</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="9">
-        <v>2</v>
-      </c>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" s="6" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A6" s="6">
+      <c r="G5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="10">
+        <v>2</v>
+      </c>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" s="7" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>5</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" s="6" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A7" s="6">
+      <c r="G6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" s="7" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="9">
+      <c r="G7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1593,7 +1680,7 @@
         <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>14</v>
@@ -1610,7 +1697,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -1619,7 +1706,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>14</v>
@@ -1636,7 +1723,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>11</v>
@@ -1645,7 +1732,7 @@
         <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>14</v>
@@ -1663,7 +1750,7 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>11</v>
@@ -1672,9 +1759,9 @@
         <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="2">
@@ -1699,16 +1786,16 @@
         <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="148.5" spans="1:10">
+    <row r="7" ht="14.25" spans="1:8">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1725,16 +1812,13 @@
         <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1747,15 +1831,271 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="A1:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="53.875" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="48.625" customWidth="1"/>
+    <col min="7" max="7" width="40.625" customWidth="1"/>
+    <col min="8" max="8" width="8.625" customWidth="1"/>
+    <col min="9" max="9" width="6.625" customWidth="1"/>
+    <col min="10" max="10" width="52.625" customWidth="1"/>
+    <col min="11" max="16384" width="53.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" ht="27" spans="1:10">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:10">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:10">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" ht="27" spans="1:10">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" ht="27" spans="1:10">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" ht="27" spans="1:10">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" ht="27" spans="1:10">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17145" windowHeight="11790" activeTab="2"/>
+    <workbookView windowWidth="28060" windowHeight="12000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>case_id</t>
   </si>
@@ -146,6 +146,39 @@
     <t>data</t>
   </si>
   <si>
+    <t>投资</t>
+  </si>
+  <si>
+    <t>投资金额为空</t>
+  </si>
+  <si>
+    <t>/member/invest</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#, "loan_id": #loan_id#}</t>
+  </si>
+  <si>
+    <t>投资金额为负数</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#, "loan_id": #loan_id#,"amount":-2}</t>
+  </si>
+  <si>
+    <t>投资金额不是100的倍数</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#, "loan_id": #loan_id#,"amount":103}</t>
+  </si>
+  <si>
+    <t>投资金额超过余额</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#, "loan_id": #loan_id#,"amount":*above_balance*}</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#, "loan_id": #loan_id#,"amount":100}</t>
+  </si>
+  <si>
     <t>添加投资</t>
   </si>
   <si>
@@ -155,7 +188,7 @@
     <t>/loan/add</t>
   </si>
   <si>
-    <t>{"member_id": #member_id#, "title":"我来测试","amount":"100","loan__rate": 18}</t>
+    <t>{"member_id": #member_id#, "title":"我来测试","amount":"100","loan_rate": 18}</t>
   </si>
   <si>
     <t>审核投资</t>
@@ -165,39 +198,6 @@
   </si>
   <si>
     <t>{"approved_or_not": true, "loan_id": #loan_id#}</t>
-  </si>
-  <si>
-    <t>投资</t>
-  </si>
-  <si>
-    <t>投资金额为空</t>
-  </si>
-  <si>
-    <t>/member/invest</t>
-  </si>
-  <si>
-    <t>{"member_id": #member_id#, "loan_id": #loan_id#}</t>
-  </si>
-  <si>
-    <t>投资金额为负数</t>
-  </si>
-  <si>
-    <t>{"member_id": #member_id#, "loan_id": #loan_id#,"amount":-2}</t>
-  </si>
-  <si>
-    <t>投资金额不是100的倍数</t>
-  </si>
-  <si>
-    <t>{"member_id": #member_id#, "loan_id": #loan_id#,"amount":103}</t>
-  </si>
-  <si>
-    <t>投资金额超过余额</t>
-  </si>
-  <si>
-    <t>{"member_id": #member_id#, "loan_id": #loan_id#,"amount":*above_balance*}</t>
-  </si>
-  <si>
-    <t>{"member_id": #member_id#, "loan_id": #loan_id#,"amount":100}</t>
   </si>
 </sst>
 </file>
@@ -205,10 +205,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -238,9 +238,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,6 +253,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -261,8 +276,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,24 +316,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,6 +341,22 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -314,62 +369,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,103 +384,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,73 +558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,17 +593,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,7 +606,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,16 +642,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,15 +672,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,164 +690,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -868,10 +868,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -883,54 +883,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1226,7 +1226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -1234,12 +1234,12 @@
       <selection activeCell="I5" sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="2" width="9" style="7" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="7" customWidth="1"/>
     <col min="4" max="4" width="7.375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="19.15" style="7" customWidth="1"/>
+    <col min="5" max="5" width="19.1538461538462" style="7" customWidth="1"/>
     <col min="6" max="6" width="56" style="7" customWidth="1"/>
     <col min="7" max="7" width="44.875" style="7" customWidth="1"/>
     <col min="8" max="8" width="12.875" style="7" customWidth="1"/>
@@ -1329,47 +1329,47 @@
       </c>
       <c r="I3"/>
     </row>
-    <row r="4" ht="14.25" spans="1:9">
-      <c r="A4" s="10">
+    <row r="4" spans="1:9">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="10">
+      <c r="G4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="9">
         <v>1</v>
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" ht="14.25" spans="1:9">
-      <c r="A5" s="10">
+    <row r="5" spans="1:9">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="11" t="s">
@@ -1378,7 +1378,7 @@
       <c r="G5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>2</v>
       </c>
       <c r="I5" s="12"/>
@@ -1391,7 +1391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -1399,17 +1399,17 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="8.15" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.45833333333333" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.15" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.30833333333333" style="7" customWidth="1"/>
-    <col min="5" max="5" width="19.15" style="7" customWidth="1"/>
-    <col min="6" max="6" width="73.075" style="7" customWidth="1"/>
-    <col min="7" max="7" width="48.7666666666667" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9.30833333333333" style="7" customWidth="1"/>
-    <col min="9" max="9" width="6.61666666666667" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.15384615384615" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.46153846153846" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.1538461538462" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.30769230769231" style="7" customWidth="1"/>
+    <col min="5" max="5" width="19.1538461538462" style="7" customWidth="1"/>
+    <col min="6" max="6" width="73.0769230769231" style="7" customWidth="1"/>
+    <col min="7" max="7" width="48.7692307692308" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.30769230769231" style="7" customWidth="1"/>
+    <col min="9" max="9" width="6.61538461538461" style="7" customWidth="1"/>
     <col min="10" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
@@ -1455,10 +1455,10 @@
       <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -1468,7 +1468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" ht="14.25" spans="1:8">
+    <row r="3" s="7" customFormat="1" spans="1:8">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1481,10 +1481,10 @@
       <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -1494,61 +1494,61 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A4" s="10">
+    <row r="4" s="7" customFormat="1" spans="1:9">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>3</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="10">
+      <c r="G4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="9">
         <v>1</v>
       </c>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" s="7" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A5" s="10">
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" s="7" customFormat="1" spans="1:9">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="10">
-        <v>2</v>
-      </c>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" s="7" customFormat="1" ht="14.25" spans="1:8">
+      <c r="H5" s="9">
+        <v>2</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" s="7" customFormat="1" spans="1:8">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1558,23 +1558,23 @@
       <c r="C6" s="7">
         <v>5</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" s="7" customFormat="1" ht="14.25" spans="1:8">
+      <c r="H6" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" s="7" customFormat="1" spans="1:8">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1584,19 +1584,19 @@
       <c r="C7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>2</v>
       </c>
     </row>
@@ -1608,30 +1608,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="8.15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.45833333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.30833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.15" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.15384615384615" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.46153846153846" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1538461538462" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.30769230769231" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1538461538462" style="1" customWidth="1"/>
     <col min="6" max="6" width="50.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="48.7666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.30833333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.61666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.7692307692308" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.30769230769231" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.61538461538461" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.375" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:10">
+    <row r="1" ht="17" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:8">
+    <row r="2" ht="17" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:8">
+    <row r="3" ht="17" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:9">
+    <row r="4" ht="17" spans="1:9">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" ht="14.25" spans="1:9">
+    <row r="5" ht="17" spans="1:9">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" ht="27" spans="1:8">
+    <row r="6" ht="34" spans="1:8">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:8">
+    <row r="7" ht="17" spans="1:8">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1829,15 +1829,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="A1:G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="53.875" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="53.875" defaultRowHeight="16.8" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
@@ -1852,7 +1852,7 @@
     <col min="11" max="16384" width="53.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" ht="34" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1882,17 +1882,17 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" ht="27" spans="1:10">
-      <c r="A2" s="1">
-        <v>1</v>
+    <row r="2" ht="34" spans="1:10">
+      <c r="A2" s="2">
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1901,182 +1901,126 @@
       <c r="F2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1"/>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" ht="14.25" spans="1:10">
-      <c r="A3" s="1">
-        <v>2</v>
+    <row r="3" ht="34" spans="1:10">
+      <c r="A3" s="2">
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" ht="34" spans="1:10">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" ht="14.25" spans="1:10">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" ht="34" spans="1:10">
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" ht="34" spans="1:10">
+      <c r="A6" s="1">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" ht="27" spans="1:10">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" ht="27" spans="1:10">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="G6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" ht="27" spans="1:10">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" ht="27" spans="1:10">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2085,16 +2029,167 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A4" sqref="$A4:$XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="28.6826923076923" defaultRowHeight="16.8" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="1" width="7.30769230769231" customWidth="1"/>
+    <col min="2" max="2" width="9.42307692307692" customWidth="1"/>
+    <col min="3" max="3" width="23.2692307692308" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="15.9615384615385" customWidth="1"/>
+    <col min="6" max="6" width="28.2692307692308" customWidth="1"/>
+    <col min="7" max="7" width="26.9230769230769" customWidth="1"/>
+    <col min="8" max="8" width="8.46153846153846" customWidth="1"/>
+    <col min="9" max="9" width="5.76923076923077" customWidth="1"/>
+    <col min="10" max="16384" width="28.6826923076923" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="68" spans="1:9">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" ht="34" spans="1:9">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
